--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3808419.47142268</v>
+        <v>3804115.154374438</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7419300.208017268</v>
+        <v>7419300.208017267</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>219.1522629091157</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651799</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3828147651799</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="G2" t="n">
         <v>12.83532033605545</v>
       </c>
       <c r="H2" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>96.92542839346399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807546</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.190584626427</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>114.4859695236242</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>56.9748819352949</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>78.67090732428194</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="V4" t="n">
-        <v>123.7580966349373</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651799</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>263.7138800015061</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>225.403139763615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>105.8412366957105</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>155.2537761190401</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>182.4952371625817</v>
       </c>
       <c r="T7" t="n">
-        <v>125.1710939774513</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>246.6994950393316</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>268.8326988213089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>10.88679911484605</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1347,16 +1347,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>76.85965801239385</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>78.14939830226075</v>
       </c>
       <c r="C13" t="n">
-        <v>19.88691958258267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.4726336168575</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>121.8000472740356</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>112.29197251191</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>74.20064764874485</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>61.44013021076714</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2845,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>85.71023095289448</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>79.69108391904159</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.77126028643559</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>140.4383865840207</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>171.6971896214536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>182.6459585974029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.6267859360087</v>
+        <v>832.1653369303035</v>
       </c>
       <c r="C2" t="n">
-        <v>955.6267859360087</v>
+        <v>566.1220896927471</v>
       </c>
       <c r="D2" t="n">
-        <v>689.5835386984531</v>
+        <v>566.1220896927471</v>
       </c>
       <c r="E2" t="n">
-        <v>423.5402914608977</v>
+        <v>566.1220896927471</v>
       </c>
       <c r="F2" t="n">
-        <v>416.5947907116942</v>
+        <v>300.0788424551906</v>
       </c>
       <c r="G2" t="n">
-        <v>403.6298206752746</v>
+        <v>287.1138724187709</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0706251812144</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467323</v>
+        <v>49.15993901467363</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935559</v>
+        <v>141.9970572935566</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959967</v>
+        <v>294.0714735959979</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795969</v>
+        <v>494.9530007795988</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670317</v>
+        <v>703.6988094670342</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288933</v>
+        <v>887.4762960288963</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108066</v>
+        <v>1009.825128108069</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="V2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="W2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="X2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="Y2" t="n">
-        <v>955.6267859360087</v>
+        <v>1053.531259060723</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>373.6292670479974</v>
+        <v>326.842638159785</v>
       </c>
       <c r="C3" t="n">
-        <v>373.6292670479974</v>
+        <v>326.842638159785</v>
       </c>
       <c r="D3" t="n">
-        <v>224.6948573867461</v>
+        <v>326.842638159785</v>
       </c>
       <c r="E3" t="n">
-        <v>65.45740238129062</v>
+        <v>167.6051831543295</v>
       </c>
       <c r="F3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0706251812144</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0706251812144</v>
+        <v>117.0004092799687</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371029</v>
+        <v>191.5864341124649</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433168</v>
+        <v>338.1990901420718</v>
       </c>
       <c r="M3" t="n">
-        <v>503.018292660845</v>
+        <v>528.6460126286582</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767051</v>
+        <v>738.5421433767077</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748509</v>
+        <v>908.336301274854</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062219</v>
+        <v>1025.278016062222</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.53125906072</v>
+        <v>1035.156931155242</v>
       </c>
       <c r="S3" t="n">
-        <v>904.8834594766904</v>
+        <v>1035.156931155242</v>
       </c>
       <c r="T3" t="n">
-        <v>789.2410660184842</v>
+        <v>1035.156931155242</v>
       </c>
       <c r="U3" t="n">
-        <v>789.2410660184842</v>
+        <v>1035.156931155242</v>
       </c>
       <c r="V3" t="n">
-        <v>789.2410660184842</v>
+        <v>800.004822923499</v>
       </c>
       <c r="W3" t="n">
-        <v>789.2410660184842</v>
+        <v>742.4544371302718</v>
       </c>
       <c r="X3" t="n">
-        <v>581.3895658129513</v>
+        <v>534.602936924739</v>
       </c>
       <c r="Y3" t="n">
-        <v>373.6292670479974</v>
+        <v>326.842638159785</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.6405049345414</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="C4" t="n">
-        <v>189.6405049345414</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="D4" t="n">
-        <v>189.6405049345414</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="E4" t="n">
-        <v>189.6405049345414</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="F4" t="n">
-        <v>189.6405049345414</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0706251812144</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0706251812144</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0706251812144</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0706251812144</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481197</v>
+        <v>126.32778054812</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964347</v>
+        <v>316.5471352504853</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030318</v>
+        <v>526.6665349030347</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670091</v>
+        <v>738.0340231670123</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836285</v>
+        <v>917.2498138836319</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097371</v>
+        <v>1047.079201097374</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="S4" t="n">
-        <v>846.735177828781</v>
+        <v>846.7351778287847</v>
       </c>
       <c r="T4" t="n">
-        <v>846.735177828781</v>
+        <v>621.2639235784779</v>
       </c>
       <c r="U4" t="n">
-        <v>580.6919305912255</v>
+        <v>355.2206763409215</v>
       </c>
       <c r="V4" t="n">
-        <v>455.6837521720969</v>
+        <v>100.5361881350346</v>
       </c>
       <c r="W4" t="n">
-        <v>189.6405049345414</v>
+        <v>100.5361881350346</v>
       </c>
       <c r="X4" t="n">
-        <v>189.6405049345414</v>
+        <v>100.5361881350346</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.6405049345414</v>
+        <v>100.5361881350346</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.7979242836799</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="C5" t="n">
-        <v>560.7979242836799</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>560.7979242836799</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>560.7979242836799</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>553.8524235344764</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4573,7 +4573,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.7979242836799</v>
+        <v>268.4151888127974</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.5812722902314</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>121.5812722902314</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>121.5812722902314</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4652,19 +4652,19 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>268.3979551252636</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4676,22 +4676,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>604.5584496125095</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>497.6481095158322</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>289.7966093102994</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y6" t="n">
-        <v>289.7966093102994</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.15602058326</v>
+        <v>487.0398802382734</v>
       </c>
       <c r="C7" t="n">
-        <v>338.15602058326</v>
+        <v>318.1036973103666</v>
       </c>
       <c r="D7" t="n">
-        <v>338.15602058326</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2429270008669</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2429270008669</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008669</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512189</v>
+        <v>741.7243684441603</v>
       </c>
       <c r="T7" t="n">
-        <v>592.8405087891468</v>
+        <v>741.7243684441603</v>
       </c>
       <c r="U7" t="n">
-        <v>592.8405087891468</v>
+        <v>741.7243684441603</v>
       </c>
       <c r="V7" t="n">
-        <v>338.15602058326</v>
+        <v>487.0398802382734</v>
       </c>
       <c r="W7" t="n">
-        <v>338.15602058326</v>
+        <v>487.0398802382734</v>
       </c>
       <c r="X7" t="n">
-        <v>338.15602058326</v>
+        <v>487.0398802382734</v>
       </c>
       <c r="Y7" t="n">
-        <v>338.15602058326</v>
+        <v>487.0398802382734</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.346298904865</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.383781964454</v>
+        <v>1467.142397928551</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.118083357703</v>
+        <v>1108.8766993218</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>723.0884467235558</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>312.1025419339482</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>300.4381956986412</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,46 +4810,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.89447953245</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y8" t="n">
-        <v>1957.346298904865</v>
+        <v>1836.104914868962</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081664</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.0949848405772</v>
+        <v>824.8383149077158</v>
       </c>
       <c r="C10" t="n">
-        <v>622.0949848405772</v>
+        <v>655.9021319798089</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9783454282415</v>
+        <v>505.7854925674732</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282415</v>
+        <v>357.8723989850801</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>210.9824514871697</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>210.9824514871697</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>62.24355335067591</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>850.0845357385946</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W10" t="n">
-        <v>850.0845357385946</v>
+        <v>824.8383149077158</v>
       </c>
       <c r="X10" t="n">
-        <v>622.0949848405772</v>
+        <v>824.8383149077158</v>
       </c>
       <c r="Y10" t="n">
-        <v>622.0949848405772</v>
+        <v>824.8383149077158</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,25 +5293,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2233.35591459056</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>2383.002557118215</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>2716.927329289435</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>3212.252935505194</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>3241.424143276707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>3869.022106831314</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>4420.931837070601</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4420.931837070601</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4654.193497445483</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675715</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191926</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845745</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400352</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400721</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277364</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,16 +5770,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446605</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.4916164683292</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>754.5554335404223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>604.4387941280866</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>456.5257005456934</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>456.5257005456934</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>289.3296012605734</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683292</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6305,22 +6305,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>379.6759351444937</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6493,19 +6493,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.1865537761979</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.250370848291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>631.1337314359553</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>483.2206378535622</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2903.818811013811</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>2734.882628085904</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>2734.882628085904</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4367.426290784248</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>4078.351064128446</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>3823.666575922559</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>3534.249405885598</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>3306.259854987581</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>3085.467275844051</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>924.6979859831846</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1106.346450813424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7441,7 +7441,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3930.619889748031</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3641.20271971107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3413.213168813053</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3192.420589669523</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.5916434387731</v>
+        <v>60.59164343877291</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079593</v>
+        <v>99.00790724000294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.01218599085064</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>25.88658582607184</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8142,10 +8142,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>161.6369618909988</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>177.6719212588924</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8300,10 +8300,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>26.13373767211345</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>255.8421700460943</v>
+        <v>114.3555089013356</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="C13" t="n">
-        <v>147.3599015160452</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.11201973523728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>24.63391537253361</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>28.00274033431388</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>211.9838267404993</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>104.0840080815017</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>139.9994244361427</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>65.72996410388966</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>39.70888054695394</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>144.6341900408527</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>26.80843451460714</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>80.44045370237441</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>69.49168472642506</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>659185.9692320882</v>
+        <v>659185.9692320883</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637127.5500949887</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977553</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="N2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977564</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909289</v>
+        <v>679702.4124909298</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680946447</v>
+        <v>366.4703680936262</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059438</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642057</v>
+        <v>68912.533186421</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774280055</v>
+        <v>85.20559774255184</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.6461375698</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674033</v>
+        <v>253116.547767403</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26432,10 +26432,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26453,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181816</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557684</v>
+        <v>63021.46164557692</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-195324.6962862326</v>
+        <v>-195324.6962862332</v>
       </c>
       <c r="C6" t="n">
-        <v>484084.6871379802</v>
+        <v>484084.6871379814</v>
       </c>
       <c r="D6" t="n">
-        <v>173702.6321041889</v>
+        <v>173702.6321041887</v>
       </c>
       <c r="E6" t="n">
-        <v>165973.0430674851</v>
+        <v>165625.663813128</v>
       </c>
       <c r="F6" t="n">
-        <v>673458.4846920307</v>
+        <v>673111.1054376736</v>
       </c>
       <c r="G6" t="n">
-        <v>673458.4846920301</v>
+        <v>673111.1054376737</v>
       </c>
       <c r="H6" t="n">
-        <v>673458.48469203</v>
+        <v>673111.1054376736</v>
       </c>
       <c r="I6" t="n">
-        <v>673458.4846920307</v>
+        <v>673111.1054376736</v>
       </c>
       <c r="J6" t="n">
-        <v>604545.95150561</v>
+        <v>604198.5722512529</v>
       </c>
       <c r="K6" t="n">
-        <v>673373.2790942879</v>
+        <v>673025.8998399313</v>
       </c>
       <c r="L6" t="n">
-        <v>578075.8385544609</v>
+        <v>577728.4593001038</v>
       </c>
       <c r="M6" t="n">
-        <v>540851.1909631039</v>
+        <v>540503.8117087474</v>
       </c>
       <c r="N6" t="n">
-        <v>673458.4846920304</v>
+        <v>673111.1054376736</v>
       </c>
       <c r="O6" t="n">
-        <v>673458.4846920309</v>
+        <v>673111.1054376736</v>
       </c>
       <c r="P6" t="n">
-        <v>673458.4846920313</v>
+        <v>673111.1054376736</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960508</v>
+        <v>613.7700232960516</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960508</v>
+        <v>613.7700232960516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473427456</v>
+        <v>0.2849904734266602</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480612</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363261966</v>
+        <v>0.3310652363252871</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363261966</v>
+        <v>0.3310652363252302</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363261966</v>
+        <v>0.3310652363252871</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>163.5815787543649</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.8900770058267</v>
       </c>
       <c r="D2" t="n">
-        <v>91.30022685550301</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5475553070818</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.4932309765306</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.82255116533827</v>
+        <v>50.82255116533731</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739394</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>152.7938006179688</v>
       </c>
       <c r="T2" t="n">
         <v>212.2947308627104</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>289.3125102625896</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>99.48524054500679</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9429094280754</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642711</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
-        <v>80.35748887488545</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>194.7201012256247</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>101.1610728576554</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482566</v>
+        <v>15.1085330482565</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.8758437693474</v>
+        <v>22.87584376934649</v>
       </c>
       <c r="V4" t="n">
-        <v>128.3795466888907</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357141106</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>140.1382145298789</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27672,7 +27672,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>64.03837846862876</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>160.8347988924386</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,7 +27712,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -27748,22 +27748,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>145.8537464652091</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>50.51920908443734</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>22.22392708101205</v>
       </c>
       <c r="T7" t="n">
-        <v>98.04325190211455</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>54.31905752307375</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>117.4052398347447</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>93.9097960890545</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>175.2779853114342</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079599</v>
+        <v>2.467417179079602</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524895</v>
+        <v>25.26943618524898</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646634</v>
+        <v>95.12510079646647</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029073</v>
+        <v>209.4189488029076</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933469</v>
+        <v>313.8647179933473</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876042</v>
+        <v>389.3769364876047</v>
       </c>
       <c r="M2" t="n">
-        <v>433.256866746061</v>
+        <v>433.2568667460616</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061209</v>
+        <v>440.2674158061215</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316482</v>
+        <v>415.7320362316487</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231205</v>
+        <v>354.817674623121</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973323</v>
+        <v>266.4532968973326</v>
       </c>
       <c r="R2" t="n">
-        <v>154.993894375359</v>
+        <v>154.9938943753592</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827643</v>
+        <v>56.2262689682765</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.80111870142096</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263679</v>
+        <v>0.1973933743263682</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410373</v>
+        <v>1.320184578410375</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148966</v>
+        <v>12.75020369148968</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333962</v>
+        <v>45.45372342333967</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435871</v>
+        <v>124.7284912435873</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970821</v>
+        <v>213.1808579970824</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289717</v>
+        <v>286.647971728972</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963476</v>
+        <v>334.5046626963481</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682313</v>
+        <v>343.3580057682317</v>
       </c>
       <c r="O3" t="n">
-        <v>314.105494846612</v>
+        <v>314.1054948466124</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439949</v>
+        <v>252.0973516439953</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774365</v>
+        <v>168.5204033774367</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621602</v>
+        <v>81.96724952621614</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564881</v>
+        <v>24.52184951564884</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311986</v>
+        <v>5.321270296311993</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962987</v>
+        <v>0.08685424857962998</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.106798402665011</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058001</v>
+        <v>9.840443980058014</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923502</v>
+        <v>33.28444650923507</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841617</v>
+        <v>78.25064706841627</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823529</v>
+        <v>128.5898507823531</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653052</v>
+        <v>164.5507370653054</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195705</v>
+        <v>173.4956805195707</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187283</v>
+        <v>169.3703410187286</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148689</v>
+        <v>156.4409233148691</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.8622359005027</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770366</v>
+        <v>92.67927351770379</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528305</v>
+        <v>49.76568090528312</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735293</v>
+        <v>19.28847761735296</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477767</v>
+        <v>4.729047720477773</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354604</v>
+        <v>0.06037082196354612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>345.6771571865338</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32019,7 +32019,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>388.51401392977</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>381.2855185329309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>574.6535388222619</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622104</v>
+        <v>28.37304427622132</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836631</v>
+        <v>93.77486694836671</v>
       </c>
       <c r="L2" t="n">
-        <v>153.610521517617</v>
+        <v>153.6105215176175</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187883</v>
+        <v>202.9106335187888</v>
       </c>
       <c r="N2" t="n">
-        <v>210.85435220953</v>
+        <v>210.8543522095306</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099615</v>
+        <v>185.633824809962</v>
       </c>
       <c r="P2" t="n">
-        <v>123.584678867851</v>
+        <v>123.5846788678514</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.1476070228828</v>
+        <v>44.14760702288314</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.8987718169235</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272312</v>
+        <v>75.3394190227234</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490975</v>
+        <v>148.0935919490979</v>
       </c>
       <c r="M3" t="n">
-        <v>263.3828147651799</v>
+        <v>192.3706287743298</v>
       </c>
       <c r="N3" t="n">
-        <v>237.9028795109698</v>
+        <v>212.0162936848984</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021675</v>
+        <v>171.5092504021679</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296647</v>
+        <v>118.122944229665</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141494</v>
+        <v>28.53862929141516</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.32035895647</v>
+        <v>106.3203589564702</v>
       </c>
       <c r="L4" t="n">
-        <v>191.3030226750657</v>
+        <v>192.1407623256215</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814111</v>
+        <v>212.2418178308581</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979569</v>
+        <v>213.5025133979572</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289085</v>
+        <v>181.0260512289087</v>
       </c>
       <c r="P4" t="n">
-        <v>131.140795165396</v>
+        <v>131.1407951653962</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009278</v>
+        <v>6.517230266009406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>174.3604282380697</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>553.5225306839445</v>
+        <v>412.0358695391859</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35275,7 +35275,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>207.1227774066596</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>245.9177694853256</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>249.9438064495976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>432.0572943778175</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3804115.154374438</v>
+        <v>3805875.684677222</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.1522629091157</v>
+        <v>219.1522629091161</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651809</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.3828147651811</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651811</v>
       </c>
       <c r="G2" t="n">
         <v>12.83532033605545</v>
       </c>
       <c r="H2" t="n">
-        <v>263.3828147651809</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.3828147651811</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.190584626427</v>
+        <v>18.19058462642698</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>56.9748819352949</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>156.3067716500157</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.67090732428194</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>263.3828147651809</v>
+        <v>195.6197594428947</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>155.2537761190401</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>41.41530387486785</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>182.4952371625817</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>134.7949824134897</v>
       </c>
       <c r="H8" t="n">
-        <v>246.6994950393316</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>10.88679911484605</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>62.08987228292609</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.14939830226075</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>186.0007748420842</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,13 +1666,13 @@
         <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.14989839348819</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>123.7971820797027</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695388</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.9065924712584</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H41" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>832.1653369303035</v>
+        <v>566.1220896927475</v>
       </c>
       <c r="C2" t="n">
-        <v>566.1220896927471</v>
+        <v>566.1220896927475</v>
       </c>
       <c r="D2" t="n">
-        <v>566.1220896927471</v>
+        <v>300.0788424551909</v>
       </c>
       <c r="E2" t="n">
-        <v>566.1220896927471</v>
+        <v>300.0788424551909</v>
       </c>
       <c r="F2" t="n">
-        <v>300.0788424551906</v>
+        <v>34.03559521763414</v>
       </c>
       <c r="G2" t="n">
-        <v>287.1138724187709</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467363</v>
+        <v>49.15993901467391</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935566</v>
+        <v>141.9970572935572</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959979</v>
+        <v>294.0714735959988</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795988</v>
+        <v>494.9530007795997</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670342</v>
+        <v>703.6988094670351</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288963</v>
+        <v>887.4762960288974</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108069</v>
+        <v>1009.82512810807</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="V2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="W2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="X2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="Y2" t="n">
-        <v>1053.531259060723</v>
+        <v>787.4880118231679</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.842638159785</v>
+        <v>501.295667440912</v>
       </c>
       <c r="C3" t="n">
         <v>326.842638159785</v>
@@ -4397,64 +4397,64 @@
         <v>167.6051831543295</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="J3" t="n">
-        <v>117.0004092799687</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="K3" t="n">
-        <v>191.5864341124649</v>
+        <v>95.65665001371069</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420718</v>
+        <v>242.2693060433176</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286582</v>
+        <v>503.018292660847</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767077</v>
+        <v>738.5421433767089</v>
       </c>
       <c r="O3" t="n">
-        <v>908.336301274854</v>
+        <v>908.3363012748551</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062222</v>
+        <v>1025.278016062224</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155242</v>
+        <v>1035.156931155243</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155242</v>
+        <v>1035.156931155243</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155242</v>
+        <v>1035.156931155243</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155242</v>
+        <v>1035.156931155243</v>
       </c>
       <c r="V3" t="n">
-        <v>800.004822923499</v>
+        <v>1035.156931155243</v>
       </c>
       <c r="W3" t="n">
-        <v>742.4544371302718</v>
+        <v>1035.156931155243</v>
       </c>
       <c r="X3" t="n">
-        <v>534.602936924739</v>
+        <v>877.2713032259339</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.842638159785</v>
+        <v>669.5110044609801</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.07062518121447</v>
+        <v>168.9837187636076</v>
       </c>
       <c r="C4" t="n">
-        <v>21.07062518121447</v>
+        <v>168.9837187636076</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121447</v>
+        <v>168.9837187636076</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121449</v>
       </c>
       <c r="K4" t="n">
         <v>126.32778054812</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504853</v>
+        <v>316.5471352504854</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030347</v>
+        <v>527.4958971570826</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670123</v>
+        <v>738.8633854210602</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836319</v>
+        <v>918.07917613768</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097374</v>
+        <v>1047.908563351422</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="S4" t="n">
-        <v>846.7351778287847</v>
+        <v>846.7351778287858</v>
       </c>
       <c r="T4" t="n">
-        <v>621.2639235784779</v>
+        <v>621.2639235784791</v>
       </c>
       <c r="U4" t="n">
-        <v>355.2206763409215</v>
+        <v>423.6682069694945</v>
       </c>
       <c r="V4" t="n">
-        <v>100.5361881350346</v>
+        <v>168.9837187636076</v>
       </c>
       <c r="W4" t="n">
-        <v>100.5361881350346</v>
+        <v>168.9837187636076</v>
       </c>
       <c r="X4" t="n">
-        <v>100.5361881350346</v>
+        <v>168.9837187636076</v>
       </c>
       <c r="Y4" t="n">
-        <v>100.5361881350346</v>
+        <v>168.9837187636076</v>
       </c>
     </row>
     <row r="5">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4664,7 +4664,7 @@
         <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4688,10 +4688,10 @@
         <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>879.6976401329762</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>487.0398802382734</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="C7" t="n">
-        <v>318.1036973103666</v>
+        <v>631.2348488722308</v>
       </c>
       <c r="D7" t="n">
-        <v>167.9870578980309</v>
+        <v>481.1182094598951</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>333.205115877502</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>186.3151683795916</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
         <v>21.09711040012049</v>
@@ -4728,19 +4728,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>741.7243684441603</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>741.7243684441603</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>741.7243684441603</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>487.0398802382734</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>487.0398802382734</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X7" t="n">
-        <v>487.0398802382734</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="Y7" t="n">
-        <v>487.0398802382734</v>
+        <v>800.1710318001377</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1836.104914868962</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="C8" t="n">
-        <v>1467.142397928551</v>
+        <v>1342.443190455019</v>
       </c>
       <c r="D8" t="n">
-        <v>1108.8766993218</v>
+        <v>984.1774918482688</v>
       </c>
       <c r="E8" t="n">
-        <v>723.0884467235558</v>
+        <v>598.3892392500245</v>
       </c>
       <c r="F8" t="n">
-        <v>312.1025419339482</v>
+        <v>187.4033344604169</v>
       </c>
       <c r="G8" t="n">
-        <v>300.4381956986412</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
@@ -4816,40 +4816,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130042</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868962</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.104914868962</v>
+        <v>1711.405707395431</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605191</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004313</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963533</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.50262973664</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>824.8383149077158</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>655.9021319798089</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>505.7854925674732</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>357.8723989850801</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9824514871697</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>210.9824514871697</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>62.24355335067591</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1573.729077364471</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1377.100329524332</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1377.100329524332</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1377.100329524332</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1377.100329524332</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8383149077158</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8383149077158</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.8383149077158</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,7 +5129,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991043</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5606,7 +5606,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,7 +5785,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5843,7 +5843,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,19 +5889,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>632.7243904253734</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253734</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,13 +6214,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,40 +6934,40 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
         <v>484.8112968429802</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7642,34 +7642,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7788,22 +7788,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877291</v>
+        <v>60.59164343877288</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.00790724000294</v>
+        <v>2.109135423079408</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.01218599085132</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25.88658582607312</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>177.6719212588924</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>64.50521872719881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>114.3555089013356</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>114.3555089013353</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>39.708880546953</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>21.62386594322854</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>39.70888054695394</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637127.5500949887</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>637127.5500949887</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176763</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909298</v>
+        <v>679702.4124909301</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680936262</v>
+        <v>366.4703680934309</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059438</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.533186421</v>
+        <v>68912.53318642106</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774255184</v>
+        <v>85.20559774249332</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.6461375698</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.547767403</v>
+        <v>253116.5477674029</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676994</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26450,13 +26450,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
+        <v>12386.92018181821</v>
+      </c>
+      <c r="N4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="N4" t="n">
-        <v>12386.92018181816</v>
-      </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557692</v>
+        <v>63021.46164557694</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-195324.6962862332</v>
+        <v>-195324.6962862337</v>
       </c>
       <c r="C6" t="n">
-        <v>484084.6871379814</v>
+        <v>484084.6871379812</v>
       </c>
       <c r="D6" t="n">
-        <v>173702.6321041887</v>
+        <v>173702.6321041886</v>
       </c>
       <c r="E6" t="n">
-        <v>165625.663813128</v>
+        <v>165938.3051420487</v>
       </c>
       <c r="F6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665952</v>
       </c>
       <c r="G6" t="n">
-        <v>673111.1054376737</v>
+        <v>673423.7467665947</v>
       </c>
       <c r="H6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665951</v>
       </c>
       <c r="I6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665952</v>
       </c>
       <c r="J6" t="n">
-        <v>604198.5722512529</v>
+        <v>604511.2135801743</v>
       </c>
       <c r="K6" t="n">
-        <v>673025.8998399313</v>
+        <v>673338.5411688524</v>
       </c>
       <c r="L6" t="n">
-        <v>577728.4593001038</v>
+        <v>578041.1006290253</v>
       </c>
       <c r="M6" t="n">
-        <v>540503.8117087474</v>
+        <v>540816.4530376683</v>
       </c>
       <c r="N6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665951</v>
       </c>
       <c r="O6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665951</v>
       </c>
       <c r="P6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665948</v>
       </c>
     </row>
   </sheetData>
@@ -26718,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>613.7700232960517</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651811</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>613.7700232960517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734266602</v>
+        <v>0.2849904734265465</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480612</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363252871</v>
+        <v>0.3310652363250028</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651811</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363252302</v>
+        <v>0.3310652363250028</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651811</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363252871</v>
+        <v>0.3310652363250028</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.5815787543649</v>
+        <v>163.5815787543644</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058267</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.30022685550182</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765306</v>
+        <v>143.4932309765303</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.82255116533731</v>
+        <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
         <v>115.3507887739394</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.8551238908724</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27475,7 +27475,7 @@
         <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>99.48524054500677</v>
       </c>
       <c r="I3" t="n">
         <v>43.9429094280754</v>
@@ -27517,13 +27517,13 @@
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>194.7201012256247</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>49.46621355346173</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.1610728576554</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482565</v>
+        <v>15.10853304825649</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.87584376934649</v>
+        <v>90.6388990916326</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>50.51920908443734</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>125.4683631636787</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888209</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>22.22392708101205</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>276.7527203594643</v>
       </c>
       <c r="H8" t="n">
-        <v>54.31905752307375</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>93.9097960890545</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>39.46770013664754</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.648064949407792e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29985,16 +29985,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079602</v>
+        <v>2.467417179079603</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524898</v>
+        <v>25.26943618524899</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646647</v>
+        <v>95.12510079646648</v>
       </c>
       <c r="J2" t="n">
         <v>209.4189488029076</v>
@@ -31056,31 +31056,31 @@
         <v>313.8647179933473</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876047</v>
+        <v>389.3769364876048</v>
       </c>
       <c r="M2" t="n">
         <v>433.2568667460616</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061215</v>
+        <v>440.2674158061216</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316487</v>
+        <v>415.7320362316488</v>
       </c>
       <c r="P2" t="n">
         <v>354.817674623121</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973326</v>
+        <v>266.4532968973327</v>
       </c>
       <c r="R2" t="n">
         <v>154.9938943753592</v>
       </c>
       <c r="S2" t="n">
-        <v>56.2262689682765</v>
+        <v>56.22626896827651</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.80111870142097</v>
       </c>
       <c r="U2" t="n">
         <v>0.1973933743263682</v>
@@ -31126,7 +31126,7 @@
         <v>12.75020369148968</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333967</v>
+        <v>45.45372342333968</v>
       </c>
       <c r="J3" t="n">
         <v>124.7284912435873</v>
@@ -31135,13 +31135,13 @@
         <v>213.1808579970824</v>
       </c>
       <c r="L3" t="n">
-        <v>286.647971728972</v>
+        <v>286.6479717289721</v>
       </c>
       <c r="M3" t="n">
         <v>334.5046626963481</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682317</v>
+        <v>343.3580057682318</v>
       </c>
       <c r="O3" t="n">
         <v>314.1054948466124</v>
@@ -31153,16 +31153,16 @@
         <v>168.5204033774367</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621614</v>
+        <v>81.96724952621615</v>
       </c>
       <c r="S3" t="n">
         <v>24.52184951564884</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311993</v>
+        <v>5.321270296311994</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962998</v>
+        <v>0.08685424857962999</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,13 +31202,13 @@
         <v>1.106798402665011</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058014</v>
+        <v>9.840443980058016</v>
       </c>
       <c r="I4" t="n">
         <v>33.28444650923507</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841627</v>
+        <v>78.25064706841628</v>
       </c>
       <c r="K4" t="n">
         <v>128.5898507823531</v>
@@ -31217,7 +31217,7 @@
         <v>164.5507370653054</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195707</v>
+        <v>173.4956805195708</v>
       </c>
       <c r="N4" t="n">
         <v>169.3703410187286</v>
@@ -31226,22 +31226,22 @@
         <v>156.4409233148691</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005027</v>
+        <v>133.8622359005028</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770379</v>
+        <v>92.67927351770381</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528312</v>
+        <v>49.76568090528313</v>
       </c>
       <c r="S4" t="n">
         <v>19.28847761735296</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477773</v>
+        <v>4.729047720477774</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354612</v>
+        <v>0.06037082196354613</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622132</v>
+        <v>28.37304427622135</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836671</v>
+        <v>93.77486694836676</v>
       </c>
       <c r="L2" t="n">
         <v>153.6105215176175</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187888</v>
+        <v>202.9106335187889</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095306</v>
+        <v>210.8543522095307</v>
       </c>
       <c r="O2" t="n">
-        <v>185.633824809962</v>
+        <v>185.6338248099621</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678514</v>
+        <v>123.5846788678515</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288314</v>
+        <v>44.14760702288319</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.8987718169235</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3394190227234</v>
+        <v>75.33941902272343</v>
       </c>
       <c r="L3" t="n">
         <v>148.0935919490979</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743298</v>
+        <v>263.3828147651811</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848984</v>
+        <v>237.9028795109716</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021679</v>
+        <v>171.509250402168</v>
       </c>
       <c r="P3" t="n">
-        <v>118.122944229665</v>
+        <v>118.1229442296651</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141516</v>
+        <v>28.53862929141519</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,22 +34862,22 @@
         <v>106.3203589564702</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256215</v>
+        <v>192.1407623256216</v>
       </c>
       <c r="M4" t="n">
-        <v>212.2418178308581</v>
+        <v>213.0795574814114</v>
       </c>
       <c r="N4" t="n">
         <v>213.5025133979572</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289087</v>
+        <v>181.0260512289088</v>
       </c>
       <c r="P4" t="n">
         <v>131.1407951653962</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009406</v>
+        <v>5.679490615456774</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>412.0358695391859</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>364.0350380248676</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
